--- a/tut05/output/0501CS17.xlsx
+++ b/tut05/output/0501CS17.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.469387755102041</v>
+        <v>6.47</v>
       </c>
       <c r="C6" t="n">
         <v>5.75</v>
       </c>
       <c r="D6" t="n">
-        <v>6.488372093023256</v>
+        <v>6.49</v>
       </c>
       <c r="E6" t="n">
-        <v>6.191489361702128</v>
+        <v>6.19</v>
       </c>
       <c r="F6" t="n">
-        <v>7.142857142857143</v>
+        <v>7.14</v>
       </c>
       <c r="G6" t="n">
-        <v>7.225</v>
+        <v>7.22</v>
       </c>
       <c r="H6" t="n">
-        <v>7.902439024390244</v>
+        <v>7.9</v>
       </c>
       <c r="I6" t="n">
         <v>7.95</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.469387755102041</v>
+        <v>6.47</v>
       </c>
       <c r="C8" t="n">
-        <v>6.129032258064516</v>
+        <v>6.13</v>
       </c>
       <c r="D8" t="n">
-        <v>6.242647058823529</v>
+        <v>6.24</v>
       </c>
       <c r="E8" t="n">
-        <v>6.229508196721311</v>
+        <v>6.23</v>
       </c>
       <c r="F8" t="n">
         <v>6.4</v>
       </c>
       <c r="G8" t="n">
-        <v>6.524528301886792</v>
+        <v>6.52</v>
       </c>
       <c r="H8" t="n">
-        <v>6.709150326797386</v>
+        <v>6.71</v>
       </c>
       <c r="I8" t="n">
-        <v>6.852601156069364</v>
+        <v>6.85</v>
       </c>
     </row>
   </sheetData>
